--- a/ScTypeDB_full.xlsx
+++ b/ScTypeDB_full.xlsx
@@ -8,24 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helsinkifi-my.sharepoint.com/personal/psergeev_ad_helsinki_fi/Documents/Project stuff/AP project (Juho, Romika)/scRNA myeloma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{34307FF9-1B58-4181-B5A6-5F4FF25B292B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8268C9C7-E1E1-46D2-BF20-932C8422A63F}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{34307FF9-1B58-4181-B5A6-5F4FF25B292B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{082C5AC7-CBD4-4E54-A53C-DFB58FBAD396}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="507">
   <si>
     <t>tissueType</t>
   </si>
@@ -1525,19 +1520,47 @@
   </si>
   <si>
     <t>NCAM1,CD2,FCGR3A, FCGR3B,CD94,NKp46,CD11b,CD161,CD314,CD69,NKG7,CD122,NKG2D,GZMB,GZMA,GZMM,FCGR3A,GNLY,COX6A2,ZMAT4,KIR2DL4,NKG7, GNLY</t>
+  </si>
+  <si>
+    <t>HSC/Prog-like</t>
+  </si>
+  <si>
+    <t>GMP-like/Granulocytes</t>
+  </si>
+  <si>
+    <t>SPINK2, ANGPT1, GUCY1A3, FAM30A, MMRN1, TPT1, GAS5, RAB27B, TPM4, MSI2, GCSAML, SOCS2, EEF1A1, NRIP1, HOPX, CD34, TFPI, TPSD1, PDZRN4, PCNP, PTPRCAP, FLT3, SMIM24, SELENOP, DAPK1, SMYD3, ADGRG6, PIM1, MECOM, CEP70, XIRP2, SPAG6, TAPT1-AS1, GNA15, DSE, TPSAB1, TPSB2, H2AFY, SCHIP1, LINC02470, NPR3, KMT2A, CD200, MACF1, GBP4, ABCC1, PROM1, TMEM70, FAM110A, TMEM123</t>
+  </si>
+  <si>
+    <t>CD3E, NCAM1, CD8A, CD3D</t>
+  </si>
+  <si>
+    <t>PRTN3, MPO, CALR, CLEC5A, ELANE, POU4F1, TRH, TSPOAP1, CEBPE, LINC01835, NUCB2, CSF3R, RUNX1T1, CD38, PLPPR3, IGFBP2, PRRT4, SNHG5, FABP5, LOC100419170, CLEC11A, SERPINB1, AZU1, FBN2, HNRNPDL, HSPB1, RNA5-8S, THSD7A, C12orf57, FGFR1, LPO, MGST1, C1QTNF4, HMGN1, SIPA1L2, DDOST, PTGIR, GATM, VAMP8, FAM46A, VAMP5, STAR, ANKRD18A, TM7SF3, CCND1, ROBO1, GFI1, DEFA4, CERS6, PTMA</t>
+  </si>
+  <si>
+    <t>Cells associated with thawing</t>
+  </si>
+  <si>
+    <t>ATF3, DNAJB1, FOSB, DNAJA1, JUN, HSPA1A, PPP1R15A, HSPH1, GADD45B, JUNB, IER2, PPP1R10, FOS, HSPA1B, HSP90AA1, AC020916.1, KLF6, HSPE1, HSPA6, HSPB1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1585,29 +1608,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{248AE785-5CF9-48E8-85D3-25620F288E63}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1919,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,60 +1983,59 @@
       <c r="A2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>354</v>
+      <c r="B2" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>191</v>
+      <c r="B3" s="6" t="s">
+        <v>500</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>211</v>
+      <c r="B4" s="6" t="s">
+        <v>501</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>356</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2016,16 +2043,14 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>192</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2033,16 +2058,14 @@
         <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>484</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>468</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2050,16 +2073,14 @@
         <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>483</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>469</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2067,16 +2088,16 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>479</v>
+        <v>212</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>487</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>470</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2084,16 +2105,16 @@
         <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2101,16 +2122,16 @@
         <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2118,16 +2139,16 @@
         <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2135,16 +2156,16 @@
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>346</v>
+        <v>485</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>352</v>
+        <v>488</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>359</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2152,14 +2173,16 @@
         <v>95</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>103</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2167,16 +2190,16 @@
         <v>95</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>360</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2184,16 +2207,16 @@
         <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>496</v>
+        <v>346</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>488</v>
+        <v>352</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2201,16 +2224,14 @@
         <v>95</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>489</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2218,14 +2239,16 @@
         <v>95</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2233,14 +2256,16 @@
         <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>488</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>101</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2248,14 +2273,16 @@
         <v>95</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>96</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2263,14 +2290,14 @@
         <v>95</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>363</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,16 +2305,14 @@
         <v>95</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>497</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>474</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2295,16 +2320,14 @@
         <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>493</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>475</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2312,16 +2335,14 @@
         <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>493</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>476</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2329,16 +2350,16 @@
         <v>95</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>498</v>
+        <v>350</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>365</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2346,14 +2367,16 @@
         <v>95</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="E26" s="2" t="s">
-        <v>366</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,14 +2384,16 @@
         <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="E27" s="2" t="s">
-        <v>367</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,14 +2401,16 @@
         <v>95</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>493</v>
+      </c>
       <c r="E28" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2391,16 +2418,14 @@
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>198</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,14 +2433,14 @@
         <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="5" t="s">
-        <v>370</v>
+      <c r="E30" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2423,14 +2448,14 @@
         <v>95</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,14 +2463,16 @@
         <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="E32" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2453,14 +2480,14 @@
         <v>95</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="2" t="s">
-        <v>373</v>
+        <v>108</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="5" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2468,59 +2495,59 @@
         <v>95</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="2" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="2" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2528,14 +2555,14 @@
         <v>71</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2543,14 +2570,14 @@
         <v>71</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2558,14 +2585,14 @@
         <v>71</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2573,14 +2600,14 @@
         <v>71</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2588,14 +2615,14 @@
         <v>71</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2603,14 +2630,14 @@
         <v>71</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2618,14 +2645,14 @@
         <v>71</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,14 +2660,14 @@
         <v>71</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2648,14 +2675,14 @@
         <v>71</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2663,14 +2690,14 @@
         <v>71</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2678,59 +2705,59 @@
         <v>71</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4" t="s">
-        <v>51</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>188</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2738,14 +2765,14 @@
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>389</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2753,14 +2780,14 @@
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2768,14 +2795,14 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>60</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2783,14 +2810,14 @@
         <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>494</v>
+        <v>57</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2798,14 +2825,14 @@
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>390</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2813,14 +2840,14 @@
         <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>391</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2828,14 +2855,14 @@
         <v>50</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>67</v>
+        <v>494</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2843,14 +2870,14 @@
         <v>50</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>4</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2858,59 +2885,59 @@
         <v>50</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>351</v>
+        <v>65</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>69</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>114</v>
+        <v>351</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>393</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,14 +2945,14 @@
         <v>109</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2933,14 +2960,14 @@
         <v>109</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>395</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2948,14 +2975,14 @@
         <v>109</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2963,14 +2990,14 @@
         <v>109</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2978,14 +3005,14 @@
         <v>109</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2993,14 +3020,14 @@
         <v>109</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3008,14 +3035,14 @@
         <v>109</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3023,14 +3050,14 @@
         <v>109</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3038,14 +3065,14 @@
         <v>109</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>128</v>
+        <v>398</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3053,14 +3080,14 @@
         <v>109</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3068,14 +3095,14 @@
         <v>109</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3083,14 +3110,14 @@
         <v>109</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>349</v>
+        <v>129</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>382</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3098,14 +3125,14 @@
         <v>109</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>70</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3113,14 +3140,14 @@
         <v>109</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>188</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3128,14 +3155,14 @@
         <v>109</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>137</v>
+        <v>349</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>5</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3143,14 +3170,14 @@
         <v>109</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>403</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3158,14 +3185,14 @@
         <v>109</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>405</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3173,14 +3200,14 @@
         <v>109</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>406</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3188,14 +3215,14 @@
         <v>109</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3203,59 +3230,59 @@
         <v>109</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>347</v>
+        <v>145</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3263,14 +3290,14 @@
         <v>150</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3278,14 +3305,14 @@
         <v>150</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>156</v>
+        <v>347</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3293,14 +3320,14 @@
         <v>150</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>157</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3308,14 +3335,14 @@
         <v>150</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>159</v>
+        <v>411</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3323,14 +3350,14 @@
         <v>150</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3338,14 +3365,14 @@
         <v>150</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3353,14 +3380,14 @@
         <v>150</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>431</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3368,14 +3395,14 @@
         <v>150</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3383,14 +3410,14 @@
         <v>150</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>188</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3398,14 +3425,14 @@
         <v>150</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3413,14 +3440,14 @@
         <v>150</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3428,14 +3455,14 @@
         <v>150</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>174</v>
+        <v>6</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>435</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3443,14 +3470,14 @@
         <v>150</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3458,14 +3485,14 @@
         <v>150</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3473,14 +3500,14 @@
         <v>150</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3488,14 +3515,14 @@
         <v>150</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3503,14 +3530,14 @@
         <v>150</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3518,59 +3545,59 @@
         <v>150</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>8</v>
+        <v>438</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>10</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4" t="s">
-        <v>12</v>
+        <v>409</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3578,14 +3605,14 @@
         <v>7</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>188</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3593,14 +3620,14 @@
         <v>7</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3608,14 +3635,14 @@
         <v>7</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3623,14 +3650,14 @@
         <v>7</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3638,14 +3665,14 @@
         <v>7</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3653,14 +3680,14 @@
         <v>7</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3668,14 +3695,14 @@
         <v>7</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D114" s="4"/>
       <c r="E114" s="4" t="s">
-        <v>399</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3683,14 +3710,14 @@
         <v>7</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>27</v>
+        <v>348</v>
       </c>
       <c r="D115" s="4"/>
       <c r="E115" s="4" t="s">
-        <v>440</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3698,14 +3725,14 @@
         <v>7</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>441</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3713,14 +3740,14 @@
         <v>7</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3728,14 +3755,14 @@
         <v>7</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D118" s="4"/>
       <c r="E118" s="4" t="s">
-        <v>32</v>
+        <v>440</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3743,14 +3770,14 @@
         <v>7</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3758,14 +3785,14 @@
         <v>7</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3773,14 +3800,14 @@
         <v>7</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>445</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3788,14 +3815,14 @@
         <v>7</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>40</v>
+        <v>443</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -3803,14 +3830,14 @@
         <v>7</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3818,14 +3845,14 @@
         <v>7</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3833,14 +3860,14 @@
         <v>7</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3848,59 +3875,59 @@
         <v>7</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>48</v>
+        <v>446</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>232</v>
+        <v>46</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>233</v>
+        <v>47</v>
       </c>
       <c r="D128" s="4"/>
       <c r="E128" s="4" t="s">
-        <v>449</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>450</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3908,14 +3935,14 @@
         <v>229</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>70</v>
+        <v>448</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3923,14 +3950,14 @@
         <v>229</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3938,14 +3965,14 @@
         <v>229</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4" t="s">
-        <v>239</v>
+        <v>450</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3953,14 +3980,14 @@
         <v>229</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>451</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3968,14 +3995,14 @@
         <v>229</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3983,14 +4010,14 @@
         <v>229</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3998,14 +4025,14 @@
         <v>229</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>3</v>
+        <v>241</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>3</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4013,14 +4040,14 @@
         <v>229</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4028,14 +4055,14 @@
         <v>229</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>249</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4043,14 +4070,14 @@
         <v>229</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>464</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4058,14 +4085,14 @@
         <v>229</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4073,59 +4100,59 @@
         <v>229</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>466</v>
+        <v>249</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>265</v>
+        <v>464</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D143" s="4"/>
       <c r="E143" s="4" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4133,14 +4160,14 @@
         <v>264</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>456</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4148,14 +4175,14 @@
         <v>264</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
-        <v>273</v>
+        <v>454</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4163,14 +4190,14 @@
         <v>264</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>4</v>
+        <v>269</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D147" s="4"/>
       <c r="E147" s="4" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4178,14 +4205,14 @@
         <v>264</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>276</v>
+        <v>456</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4193,14 +4220,14 @@
         <v>264</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4" t="s">
-        <v>457</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4208,59 +4235,59 @@
         <v>264</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>280</v>
+        <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D150" s="4"/>
       <c r="E150" s="4" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D151" s="4"/>
       <c r="E151" s="4" t="s">
-        <v>459</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D152" s="4"/>
       <c r="E152" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4" t="s">
-        <v>287</v>
+        <v>458</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4268,14 +4295,14 @@
         <v>282</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4283,14 +4310,14 @@
         <v>282</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4" t="s">
-        <v>291</v>
+        <v>460</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4298,14 +4325,14 @@
         <v>282</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D156" s="4"/>
       <c r="E156" s="4" t="s">
-        <v>462</v>
+        <v>287</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4313,14 +4340,14 @@
         <v>282</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D157" s="4"/>
       <c r="E157" s="4" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4328,14 +4355,14 @@
         <v>282</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4" t="s">
-        <v>428</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4343,14 +4370,14 @@
         <v>282</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4358,14 +4385,14 @@
         <v>282</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D160" s="4"/>
       <c r="E160" s="4" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4373,14 +4400,14 @@
         <v>282</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D161" s="4"/>
       <c r="E161" s="4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4388,14 +4415,14 @@
         <v>282</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D162" s="4"/>
       <c r="E162" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4403,59 +4430,59 @@
         <v>282</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D164" s="4"/>
       <c r="E164" s="4" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>3</v>
+        <v>305</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D165" s="4"/>
       <c r="E165" s="4" t="s">
-        <v>188</v>
+        <v>424</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>4</v>
+        <v>307</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4463,14 +4490,14 @@
         <v>309</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D167" s="4"/>
       <c r="E167" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4478,14 +4505,14 @@
         <v>309</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>316</v>
+        <v>3</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>316</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4493,14 +4520,14 @@
         <v>309</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>318</v>
+        <v>383</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4508,14 +4535,14 @@
         <v>309</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4523,14 +4550,14 @@
         <v>309</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4538,14 +4565,14 @@
         <v>309</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>5</v>
+        <v>318</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4553,14 +4580,14 @@
         <v>309</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D173" s="4"/>
       <c r="E173" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4568,14 +4595,14 @@
         <v>309</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D174" s="4"/>
       <c r="E174" s="4" t="s">
-        <v>418</v>
+        <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4583,14 +4610,14 @@
         <v>309</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>328</v>
+        <v>5</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4" t="s">
-        <v>417</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4598,59 +4625,59 @@
         <v>309</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D176" s="4"/>
       <c r="E176" s="4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>333</v>
+        <v>418</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D179" s="4"/>
       <c r="E179" s="4" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4658,14 +4685,14 @@
         <v>332</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D180" s="4"/>
       <c r="E180" s="4" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4673,14 +4700,14 @@
         <v>332</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>341</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4688,70 +4715,70 @@
         <v>332</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>95</v>
+        <v>332</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>258</v>
+        <v>339</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
       <c r="D183" s="4"/>
       <c r="E183" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>71</v>
+        <v>332</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>148</v>
+        <v>341</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>260</v>
+        <v>342</v>
       </c>
       <c r="D184" s="4"/>
       <c r="E184" s="4" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>50</v>
+        <v>332</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>148</v>
+        <v>343</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="D185" s="4"/>
       <c r="E185" s="4" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>149</v>
+        <v>259</v>
       </c>
       <c r="D186" s="4"/>
       <c r="E186" s="4" t="s">
@@ -4760,13 +4787,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
@@ -4775,46 +4802,91 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4" t="s">
         <v>409</v>
       </c>
     </row>
